--- a/biology/Biologie cellulaire et moléculaire/Carbohydrate_deficient_transferrin/Carbohydrate_deficient_transferrin.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Carbohydrate_deficient_transferrin/Carbohydrate_deficient_transferrin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La carbohydrate deficient transferrin (CDT), ou transferrine carboxy-déficiente en français, est une glycoprotéine synthétisée par le foie. Elle est spécifique de la présence d'alcool dans le sang après absorption. Combinée au dosage de la γ-glutamyltransférase, elles permettent de mettre en évidence une consommation chronique d'alcool[1]. Le dosage de la CDT qui s'exprime en pourcentage aide également au suivi thérapeutique.
-Un taux de CDT supérieur ou égal à 1,7 pour cent est considéré comme étant le reflet d'une consommation anormale d'alcool susceptible d'engendrer un effet délétère chez un individu[2].
+La carbohydrate deficient transferrin (CDT), ou transferrine carboxy-déficiente en français, est une glycoprotéine synthétisée par le foie. Elle est spécifique de la présence d'alcool dans le sang après absorption. Combinée au dosage de la γ-glutamyltransférase, elles permettent de mettre en évidence une consommation chronique d'alcool. Le dosage de la CDT qui s'exprime en pourcentage aide également au suivi thérapeutique.
+Un taux de CDT supérieur ou égal à 1,7 pour cent est considéré comme étant le reflet d'une consommation anormale d'alcool susceptible d'engendrer un effet délétère chez un individu.
 Les taux de carbohydrate deficient transferrin dans le sang nécessite 2 à 4 semaines pour redevenir normal, si un individu s'abstient de consommer de l'alcool. Celui-ci décroît rapidement (quelques jours) et permet de révéler une rechute.
 En dehors de la consommation d'alcool, un taux élevé de CDT se rencontre au cours de certaines pathologies comme une atteinte hépatique, la consommation de tabac, une hypertension artérielle, une hypoferritinémie, une maladie génétique concernant la transferrine, ou durant la grossesse.
 En comparaison avec le volume globulaire moyen ou les transaminases, le taux de CDT s'avère beaucoup plus fiable pour diagnostiquer précocement une consommation d'alcool, même relativement faible.
